--- a/excelCorrecto-clase/3_profe+classmate_desarrollado_Esquema de Aprendizaje - PlanificacionProcesos_RR - Ejercicios.xlsx
+++ b/excelCorrecto-clase/3_profe+classmate_desarrollado_Esquema de Aprendizaje - PlanificacionProcesos_RR - Ejercicios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@aleec02\OS-excel\excelCorrecto-clase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDF0FEC-A085-4BA9-B1FA-2A2F26AC9126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DC9407-9D71-4B38-BCB6-5B32B8B05690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{857C5106-1F78-41B8-A496-55FCC851C147}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{857C5106-1F78-41B8-A496-55FCC851C147}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio 00" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="62">
   <si>
     <t>P1</t>
   </si>
@@ -235,6 +235,18 @@
   <si>
     <t>9 - 2 = 7</t>
   </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
 </sst>
 </file>
 
@@ -243,7 +255,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +329,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -486,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -629,12 +662,31 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FF6600FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1126,15 +1178,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:colOff>46565</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>74084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>37041</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>61383</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1149,8 +1201,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419099" y="4248151"/>
-          <a:ext cx="4943476" cy="752474"/>
+          <a:off x="436032" y="4773084"/>
+          <a:ext cx="5053542" cy="732366"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -1192,9 +1244,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>184152</xdr:rowOff>
+      <xdr:colOff>89959</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>116419</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="329064" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -1210,7 +1262,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2121958" y="5255685"/>
+          <a:off x="2037292" y="5746752"/>
           <a:ext cx="329064" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1252,9 +1304,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>53972</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>44449</xdr:rowOff>
+      <xdr:colOff>62438</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>112182</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="331245" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -1270,7 +1322,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2390772" y="4362449"/>
+          <a:off x="2399238" y="4997449"/>
           <a:ext cx="331245" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1312,9 +1364,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>52916</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>56092</xdr:rowOff>
+      <xdr:colOff>61382</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="331245" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -1330,7 +1382,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1610783" y="4374092"/>
+          <a:off x="1619249" y="5009092"/>
           <a:ext cx="331245" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1501,8 +1553,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>184350</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2509</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1596,9 +1648,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>55032</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>46565</xdr:rowOff>
+      <xdr:colOff>63498</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114298</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="331245" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -1614,7 +1666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2002365" y="4364565"/>
+          <a:off x="2010831" y="4999565"/>
           <a:ext cx="331245" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3429,7 +3481,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -3734,7 +3786,7 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="36" width="5.6640625" style="1" customWidth="1"/>
     <col min="37" max="37" width="18.109375" style="1" customWidth="1"/>
@@ -4089,11 +4141,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38F8069-A313-4B16-A032-03BE5BAA0F2B}">
   <dimension ref="B13:AQ24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B5" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="36" width="5.6640625" style="1" customWidth="1"/>
     <col min="37" max="37" width="18.109375" style="1" customWidth="1"/>
@@ -4475,11 +4527,122 @@
     </row>
     <row r="20" spans="2:43" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="8"/>
+      <c r="C20" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U20" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="V20" s="50" t="s">
+        <v>60</v>
+      </c>
       <c r="AK20" s="14"/>
       <c r="AL20" s="15"/>
       <c r="AM20" s="15"/>
     </row>
     <row r="21" spans="2:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="AN21" s="2" t="s">
         <v>11</v>
       </c>
@@ -4495,8 +4658,30 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="22" spans="2:43" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:43" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="24" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="I24" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="O24" s="8"/>
       <c r="P24" s="8" t="s">
         <v>42</v>
@@ -4517,7 +4702,7 @@
       <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="36" width="5.6640625" style="1" customWidth="1"/>
     <col min="37" max="37" width="18.109375" style="1" customWidth="1"/>
@@ -4945,7 +5130,7 @@
       <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="36" width="5.6640625" style="1" customWidth="1"/>
     <col min="37" max="37" width="18.109375" style="1" customWidth="1"/>
@@ -5372,7 +5557,7 @@
       <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="36" width="5.6640625" style="1" customWidth="1"/>
     <col min="37" max="37" width="18.109375" style="1" customWidth="1"/>
